--- a/Intranet/test cases/import Employee Sample - v2.xlsx
+++ b/Intranet/test cases/import Employee Sample - v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8F001A-8971-4E56-AD3D-32F440A14D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5D9149-4DEC-4933-8CC3-26727BA0A3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>HoanLeV6</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Singapore</t>
   </si>
 </sst>
 </file>
@@ -504,10 +510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469DA315-7D92-470F-A746-E9829220CF23}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,15 +526,16 @@
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" customWidth="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,25 +573,28 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -622,29 +632,32 @@
         <v>33145622200</v>
       </c>
       <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="P2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1" xr:uid="{D86E208B-7FD8-4B0E-B771-03FF734F62C6}"/>
-    <hyperlink ref="Q2" r:id="rId2" xr:uid="{D48C88A8-B23B-474B-AF28-E1D47A2CD0B8}"/>
+    <hyperlink ref="O2" r:id="rId1" xr:uid="{D86E208B-7FD8-4B0E-B771-03FF734F62C6}"/>
+    <hyperlink ref="R2" r:id="rId2" xr:uid="{D48C88A8-B23B-474B-AF28-E1D47A2CD0B8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>

--- a/Intranet/test cases/import Employee Sample - v2.xlsx
+++ b/Intranet/test cases/import Employee Sample - v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STS\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5D9149-4DEC-4933-8CC3-26727BA0A3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E66DB8-3D80-4328-95FD-4B287992C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Active</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>ABC</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>IntranetPassword</t>
   </si>
   <si>
-    <t>Supper Admin</t>
-  </si>
-  <si>
     <t>HoanLeV6</t>
   </si>
   <si>
@@ -126,6 +120,18 @@
   </si>
   <si>
     <t>Singapore</t>
+  </si>
+  <si>
+    <t>HoanLe Test07</t>
+  </si>
+  <si>
+    <t>HoanLeTest07</t>
+  </si>
+  <si>
+    <t>BrandC</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
 </sst>
 </file>
@@ -512,30 +518,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469DA315-7D92-470F-A746-E9829220CF23}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.140625" customWidth="1"/>
+    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.109375" customWidth="1"/>
+    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +549,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -573,7 +579,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -582,24 +588,24 @@
         <v>12</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="S1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -611,46 +617,46 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>18</v>
       </c>
       <c r="H2">
         <v>123456678</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2">
         <v>70000</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>33145622200</v>
       </c>
       <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="R2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
         <v>20</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Intranet/test cases/import Employee Sample - v2.xlsx
+++ b/Intranet/test cases/import Employee Sample - v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\STS\automation-tool-source\Intranet\test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E66DB8-3D80-4328-95FD-4B287992C6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECA7EA-DF83-423E-8F8B-6CC3159F86D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -107,9 +107,6 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>IntranetUsername</t>
-  </si>
-  <si>
     <t>IntranetPassword</t>
   </si>
   <si>
@@ -132,13 +129,43 @@
   </si>
   <si>
     <t>CEO</t>
+  </si>
+  <si>
+    <t>HoanLe Test008</t>
+  </si>
+  <si>
+    <t>HoanLeTest08</t>
+  </si>
+  <si>
+    <t>BrandC,BrandA</t>
+  </si>
+  <si>
+    <t>VietNam</t>
+  </si>
+  <si>
+    <t>Staff</t>
+  </si>
+  <si>
+    <t>HoanLe Test009</t>
+  </si>
+  <si>
+    <t>HoanLeTest09</t>
+  </si>
+  <si>
+    <t>BrandC,BrandB</t>
+  </si>
+  <si>
+    <t>Manager</t>
+  </si>
+  <si>
+    <t>HoanLeV06</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,6 +190,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF363636"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -194,13 +227,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -516,32 +550,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469DA315-7D92-470F-A746-E9829220CF23}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.109375" customWidth="1"/>
-    <col min="17" max="17" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.109375" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +613,7 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>13</v>
@@ -593,19 +627,16 @@
       <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="R1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -617,7 +648,7 @@
         <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>17</v>
@@ -638,24 +669,130 @@
         <v>33145622200</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
       <c r="P2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3">
+        <v>123456678</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>70000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>33145622200</v>
+      </c>
+      <c r="M3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S2" t="s">
+      <c r="P3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>123456678</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>70000</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4">
+        <v>33145622200</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -663,9 +800,13 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{D86E208B-7FD8-4B0E-B771-03FF734F62C6}"/>
-    <hyperlink ref="R2" r:id="rId2" xr:uid="{D48C88A8-B23B-474B-AF28-E1D47A2CD0B8}"/>
+    <hyperlink ref="Q2" r:id="rId2" xr:uid="{D48C88A8-B23B-474B-AF28-E1D47A2CD0B8}"/>
+    <hyperlink ref="O3" r:id="rId3" xr:uid="{3DD57A8C-C8F9-4015-A0D9-56606A0D47A1}"/>
+    <hyperlink ref="Q3" r:id="rId4" xr:uid="{C298E202-44FB-42B9-907C-143AB9669620}"/>
+    <hyperlink ref="O4" r:id="rId5" xr:uid="{6B8EF5CB-2D55-420B-A953-38AF3154159A}"/>
+    <hyperlink ref="Q4" r:id="rId6" xr:uid="{E9D26DBA-50AE-48C6-ABA0-810BBF9F19A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
--- a/Intranet/test cases/import Employee Sample - v2.xlsx
+++ b/Intranet/test cases/import Employee Sample - v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\DotNet\automation-tool-source\Intranet\test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AECA7EA-DF83-423E-8F8B-6CC3159F86D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25AC3F1D-7717-4114-A458-C13901F756BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0918FE9E-155E-4B86-8890-F06ED11762D1}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Name</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>HoanLeV06</t>
+  </si>
+  <si>
+    <t>16/4/2022</t>
   </si>
 </sst>
 </file>
@@ -227,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -235,6 +238,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -553,7 +557,7 @@
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,13 +661,13 @@
         <v>123456678</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J2">
         <v>70000</v>
       </c>
-      <c r="K2" t="s">
-        <v>18</v>
+      <c r="K2" s="7">
+        <v>28186</v>
       </c>
       <c r="L2">
         <v>33145622200</v>
